--- a/仕様書/仕様書（プログラム）.xlsx
+++ b/仕様書/仕様書（プログラム）.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -1097,6 +1097,44 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝クリエイト</t>
+    <rPh sb="0" eb="1">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールクリエイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃クリエイト関数</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糸クリエイト関数</t>
+    <rPh sb="0" eb="1">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージクリエイト関数</t>
+    <rPh sb="9" eb="11">
+      <t>カンスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1464,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1619,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
         <v>42</v>
@@ -1694,7 +1732,7 @@
         <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D42" t="s">
         <v>54</v>
@@ -1761,7 +1799,7 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="D54" t="s">
         <v>57</v>
@@ -1799,7 +1837,7 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
         <v>62</v>
@@ -1847,7 +1885,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D69" t="s">
         <v>71</v>

--- a/仕様書/仕様書（プログラム）.xlsx
+++ b/仕様書/仕様書（プログラム）.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーマネージャー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤー管理</t>
     <rPh sb="5" eb="7">
       <t>カンリ</t>
@@ -929,19 +925,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>残り時間管理</t>
-    <rPh sb="0" eb="1">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>勝敗の管理</t>
     <rPh sb="0" eb="2">
       <t>ショウハイ</t>
@@ -1091,16 +1074,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>寿命管理</t>
-    <rPh sb="0" eb="2">
-      <t>ジュミョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>宝クリエイト</t>
     <rPh sb="0" eb="1">
       <t>タカラ</t>
@@ -1135,6 +1108,164 @@
     <t>ステージクリエイト関数</t>
     <rPh sb="9" eb="11">
       <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPUの場合AIで動くようにする</t>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数：ゲーム終了時間</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分のゴール以外は判定しない</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種マネージャー</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべてのマネージャの管理</t>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だれが転送したか</t>
+    <rPh sb="3" eb="5">
+      <t>テンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームスタートクラスを作る</t>
+    <rPh sb="11" eb="12">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーマネージャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示座標</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示する大きさ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消えるカウント数</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糸がプレイヤに与えるダメージ</t>
+    <rPh sb="0" eb="1">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃がプレイヤに与えるダメージ</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールに宝物がない、宝物が運ばれた、運ばれて一定時間経った、運ばれて転送時間経った、でステート管理をする</t>
+    <rPh sb="4" eb="6">
+      <t>タカラモノ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タカラモノ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1160,20 +1291,212 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1182,8 +1505,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1500,514 +1862,634 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:D95"/>
+  <dimension ref="B2:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="107.75" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="20.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="1" customWidth="1"/>
+    <col min="4" max="4" width="107.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="2" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
+      <c r="D5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="5"/>
+      <c r="C36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="5"/>
+      <c r="C37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="5"/>
+      <c r="C38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39" s="5"/>
+      <c r="C39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B40" s="5"/>
+      <c r="C40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="8"/>
+      <c r="C41" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B46" s="5"/>
+      <c r="C46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="8"/>
+      <c r="C47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B52" s="5"/>
+      <c r="C52" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B53" s="5"/>
+      <c r="C53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B54" s="5"/>
+      <c r="C54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="8"/>
+      <c r="C55" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D55" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B60" s="5"/>
+      <c r="C60" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B61" s="5"/>
+      <c r="C61" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="8"/>
+      <c r="C62" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
+      <c r="D62" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="8"/>
+      <c r="C65" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B70" s="5"/>
+      <c r="C70" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B71" s="5"/>
+      <c r="C71" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="8"/>
+      <c r="C72" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C74" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C48" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C57" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B61" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C64" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C65" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C67" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B69" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" t="s">
-        <v>94</v>
-      </c>
-      <c r="D69" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B71" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C72" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C74" t="s">
-        <v>24</v>
+      <c r="D74" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B76" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B77" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77" t="s">
-        <v>61</v>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C78" t="s">
-        <v>74</v>
-      </c>
-      <c r="D78" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B81" t="s">
-        <v>76</v>
-      </c>
-      <c r="C81" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C82" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C83" t="s">
+      <c r="B78" s="5"/>
+      <c r="C78" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D83" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C84" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
-        <v>84</v>
-      </c>
-      <c r="C87" t="s">
-        <v>85</v>
-      </c>
-      <c r="D87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C90" t="s">
-        <v>61</v>
-      </c>
-      <c r="D90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B92" t="s">
-        <v>90</v>
-      </c>
-      <c r="C92" t="s">
-        <v>61</v>
-      </c>
-      <c r="D92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C93" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C94" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C95" t="s">
-        <v>92</v>
+      <c r="D78" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="8"/>
+      <c r="C79" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B7:B20"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B51:B55"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/仕様書/仕様書（プログラム）.xlsx
+++ b/仕様書/仕様書（プログラム）.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーマネージャー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤー管理</t>
     <rPh sb="5" eb="7">
       <t>カンリ</t>
@@ -929,19 +925,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>残り時間管理</t>
-    <rPh sb="0" eb="1">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>勝敗の管理</t>
     <rPh sb="0" eb="2">
       <t>ショウハイ</t>
@@ -1091,11 +1074,197 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>寿命管理</t>
-    <rPh sb="0" eb="2">
-      <t>ジュミョウ</t>
+    <t>宝クリエイト</t>
+    <rPh sb="0" eb="1">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールクリエイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃クリエイト関数</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糸クリエイト関数</t>
+    <rPh sb="0" eb="1">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージクリエイト関数</t>
+    <rPh sb="9" eb="11">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPUの場合AIで動くようにする</t>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数：ゲーム終了時間</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分のゴール以外は判定しない</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種マネージャー</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべてのマネージャの管理</t>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だれが転送したか</t>
+    <rPh sb="3" eb="5">
+      <t>テンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームスタートクラスを作る</t>
+    <rPh sb="11" eb="12">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーマネージャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示座標</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
     </rPh>
     <rPh sb="2" eb="4">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示する大きさ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消えるカウント数</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糸がプレイヤに与えるダメージ</t>
+    <rPh sb="0" eb="1">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃がプレイヤに与えるダメージ</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールに宝物がない、宝物が運ばれた、運ばれて一定時間経った、運ばれて転送時間経った、でステート管理をする</t>
+    <rPh sb="4" eb="6">
+      <t>タカラモノ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タカラモノ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
       <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1122,20 +1291,212 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1144,8 +1505,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1462,514 +1862,634 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:D95"/>
+  <dimension ref="B2:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="107.75" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="20.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="1" customWidth="1"/>
+    <col min="4" max="4" width="107.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="2" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
+      <c r="D5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="5"/>
+      <c r="C36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="5"/>
+      <c r="C37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="5"/>
+      <c r="C38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39" s="5"/>
+      <c r="C39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B40" s="5"/>
+      <c r="C40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="8"/>
+      <c r="C41" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B46" s="5"/>
+      <c r="C46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="8"/>
+      <c r="C47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B52" s="5"/>
+      <c r="C52" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B53" s="5"/>
+      <c r="C53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B54" s="5"/>
+      <c r="C54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="8"/>
+      <c r="C55" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D55" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B60" s="5"/>
+      <c r="C60" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B61" s="5"/>
+      <c r="C61" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="8"/>
+      <c r="C62" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
+      <c r="D62" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="8"/>
+      <c r="C65" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B70" s="5"/>
+      <c r="C70" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B71" s="5"/>
+      <c r="C71" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="8"/>
+      <c r="C72" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C74" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C48" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C57" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B61" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C64" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C65" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C67" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B69" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" t="s">
-        <v>61</v>
-      </c>
-      <c r="D69" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B71" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C72" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C74" t="s">
-        <v>24</v>
+      <c r="D74" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B76" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B77" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77" t="s">
-        <v>61</v>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C78" t="s">
-        <v>74</v>
-      </c>
-      <c r="D78" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B81" t="s">
-        <v>76</v>
-      </c>
-      <c r="C81" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C82" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C83" t="s">
+      <c r="B78" s="5"/>
+      <c r="C78" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D83" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C84" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
-        <v>84</v>
-      </c>
-      <c r="C87" t="s">
-        <v>85</v>
-      </c>
-      <c r="D87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C90" t="s">
-        <v>61</v>
-      </c>
-      <c r="D90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B92" t="s">
-        <v>90</v>
-      </c>
-      <c r="C92" t="s">
-        <v>61</v>
-      </c>
-      <c r="D92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C93" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C94" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C95" t="s">
-        <v>92</v>
+      <c r="D78" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="8"/>
+      <c r="C79" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B7:B20"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B51:B55"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
